--- a/Data/EC/NIT-9004687635.xlsx
+++ b/Data/EC/NIT-9004687635.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E799A58C-7592-4D6D-A541-D8D6244FDEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9CD041D-240D-402B-BCF9-52FF6E0CD297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{291B84E3-4A7F-4FC4-A92A-C257E3C96F4B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D510DFDD-D9DC-4832-A6AD-5862A8237C29}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,55 +71,55 @@
     <t>KATIELIS VASQUEZ CHIQUILLO</t>
   </si>
   <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1143403953</t>
+  </si>
+  <si>
+    <t>YEIMIS DEL CARMEN ALVARADO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1143368141</t>
+  </si>
+  <si>
+    <t>VIANIS PAOLA CARDOZA MARTINEZ</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1143403953</t>
-  </si>
-  <si>
-    <t>YEIMIS DEL CARMEN ALVARADO RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1143368141</t>
-  </si>
-  <si>
-    <t>VIANIS PAOLA CARDOZA MARTINEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -218,7 +218,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -231,9 +233,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,23 +433,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,10 +477,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D303C3-421B-7DAD-45AE-4113F774467C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D410634-E4B4-9B0C-132F-9BCE95FE73AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3AA959-C9EB-4561-AEFB-D7B89824973B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7883575-4F52-4C23-BF6A-BDF190149490}">
   <dimension ref="B2:J60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1062,10 +1062,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>17708</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1076,16 +1076,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
         <v>828116</v>
@@ -1099,16 +1099,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
         <v>828116</v>
@@ -1128,13 +1128,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1145,16 +1145,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G20" s="18">
         <v>828116</v>
@@ -1168,16 +1168,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G21" s="18">
         <v>828116</v>
@@ -1203,7 +1203,7 @@
         <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1214,16 +1214,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G23" s="18">
         <v>828116</v>
@@ -1237,16 +1237,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G24" s="18">
         <v>828116</v>
@@ -1266,13 +1266,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1283,16 +1283,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G26" s="18">
         <v>828116</v>
@@ -1306,16 +1306,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G27" s="18">
         <v>828116</v>
@@ -1335,13 +1335,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1352,16 +1352,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>18771</v>
+        <v>33125</v>
       </c>
       <c r="G29" s="18">
         <v>828116</v>
@@ -1375,13 +1375,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1398,19 +1398,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1421,13 +1421,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1444,13 +1444,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1467,19 +1467,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1490,13 +1490,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F35" s="18">
         <v>33125</v>
@@ -1513,13 +1513,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
@@ -1536,19 +1536,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1559,13 +1559,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
         <v>33125</v>
@@ -1582,13 +1582,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
         <v>33125</v>
@@ -1605,19 +1605,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1628,10 +1628,10 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>23</v>
@@ -1651,16 +1651,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18">
-        <v>18771</v>
+        <v>33125</v>
       </c>
       <c r="G42" s="18">
         <v>828116</v>
@@ -1674,19 +1674,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1697,13 +1697,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
         <v>33125</v>
@@ -1720,13 +1720,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
         <v>33125</v>
@@ -1743,19 +1743,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1766,13 +1766,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
         <v>33125</v>
@@ -1789,13 +1789,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
         <v>33125</v>
@@ -1812,19 +1812,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F49" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1835,13 +1835,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F50" s="18">
         <v>33125</v>
@@ -1858,13 +1858,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F51" s="18">
         <v>33125</v>
@@ -1881,19 +1881,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F52" s="18">
-        <v>33125</v>
+        <v>17708</v>
       </c>
       <c r="G52" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1904,16 +1904,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F53" s="18">
-        <v>33125</v>
+        <v>18771</v>
       </c>
       <c r="G53" s="18">
         <v>828116</v>
@@ -1927,16 +1927,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D54" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="22" t="s">
-        <v>23</v>
-      </c>
       <c r="F54" s="24">
-        <v>33125</v>
+        <v>18771</v>
       </c>
       <c r="G54" s="24">
         <v>828116</v>

--- a/Data/EC/NIT-9004687635.xlsx
+++ b/Data/EC/NIT-9004687635.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9CD041D-240D-402B-BCF9-52FF6E0CD297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EBEBF1A-F88F-4C82-879B-1FF64D2F66DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D510DFDD-D9DC-4832-A6AD-5862A8237C29}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7FAF039D-448B-418B-ACFC-32EBA4A5786A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,9 +218,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -233,7 +231,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,29 +427,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,19 +468,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D410634-E4B4-9B0C-132F-9BCE95FE73AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA2098C-4E95-DBB7-E96D-53591106D76D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,80 +890,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7883575-4F52-4C23-BF6A-BDF190149490}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7ACD349-20EA-4DEF-B5AD-2648092EE23F}">
   <dimension ref="B2:J60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -967,13 +973,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9004687635</v>
       </c>
@@ -983,13 +989,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1225238</v>
       </c>
@@ -999,8 +1005,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
@@ -1019,7 +1025,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1058,20 +1064,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>31249</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>781242</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1081,20 +1087,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G17" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F17" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G17" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1104,20 +1110,20 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G18" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F18" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G18" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1127,20 +1133,20 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>31249</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>781242</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1150,20 +1156,20 @@
       <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G20" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F20" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G20" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1173,20 +1179,20 @@
       <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G21" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F21" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G21" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1196,20 +1202,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>31249</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>781242</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1219,20 +1225,20 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G23" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F23" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G23" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1242,20 +1248,20 @@
       <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G24" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F24" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G24" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1265,20 +1271,20 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>31249</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>781242</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1288,20 +1294,20 @@
       <c r="D26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G26" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F26" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G26" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1311,20 +1317,20 @@
       <c r="D27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G27" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F27" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G27" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1334,20 +1340,20 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>31249</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>781242</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1357,20 +1363,20 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G29" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F29" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G29" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1380,20 +1386,20 @@
       <c r="D30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G30" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F30" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G30" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1403,20 +1409,20 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>31249</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>781242</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1426,20 +1432,20 @@
       <c r="D32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G32" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F32" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G32" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1449,20 +1455,20 @@
       <c r="D33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G33" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F33" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G33" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1472,20 +1478,20 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>31249</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>781242</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1495,20 +1501,20 @@
       <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G35" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F35" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G35" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1518,20 +1524,20 @@
       <c r="D36" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G36" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F36" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G36" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1541,20 +1547,20 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>31249</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>781242</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1564,20 +1570,20 @@
       <c r="D38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G38" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F38" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G38" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1587,20 +1593,20 @@
       <c r="D39" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G39" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F39" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G39" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1610,20 +1616,20 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>31249</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>781242</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1633,20 +1639,20 @@
       <c r="D41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G41" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F41" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G41" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1656,20 +1662,20 @@
       <c r="D42" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G42" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F42" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G42" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1679,20 +1685,20 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>31249</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>781242</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1702,20 +1708,20 @@
       <c r="D44" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G44" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F44" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G44" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1725,20 +1731,20 @@
       <c r="D45" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G45" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F45" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G45" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1748,20 +1754,20 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>31249</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="19">
         <v>781242</v>
       </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1771,20 +1777,20 @@
       <c r="D47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G47" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F47" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G47" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1794,20 +1800,20 @@
       <c r="D48" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G48" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F48" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G48" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1817,20 +1823,20 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>31249</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="19">
         <v>781242</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1840,20 +1846,20 @@
       <c r="D50" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G50" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F50" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G50" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1863,20 +1869,20 @@
       <c r="D51" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G51" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F51" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G51" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -1886,20 +1892,20 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>17708</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="19">
         <v>781242</v>
       </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -1909,58 +1915,58 @@
       <c r="D53" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="19">
         <v>18771</v>
       </c>
-      <c r="G53" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="22" t="s">
+      <c r="G53" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F54" s="26">
         <v>18771</v>
       </c>
-      <c r="G54" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="26"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="32" t="s">
+      <c r="G54" s="26">
+        <v>828116</v>
+      </c>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="28"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="32"/>
+      <c r="C59" s="34"/>
       <c r="H59" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="32" t="s">
+    <row r="60" spans="2:10">
+      <c r="B60" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C60" s="32"/>
+      <c r="C60" s="34"/>
       <c r="H60" s="1" t="s">
         <v>38</v>
       </c>
